--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Icam2</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.8293625212978</v>
+        <v>25.59758166666667</v>
       </c>
       <c r="H2">
-        <v>17.8293625212978</v>
+        <v>76.792745</v>
       </c>
       <c r="I2">
-        <v>0.8110751760039542</v>
+        <v>0.7690757955240869</v>
       </c>
       <c r="J2">
-        <v>0.8110751760039542</v>
+        <v>0.7690757955240868</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.04779714419334</v>
+        <v>19.43258433333333</v>
       </c>
       <c r="N2">
-        <v>1.04779714419334</v>
+        <v>58.29775300000001</v>
       </c>
       <c r="O2">
-        <v>0.05770453436078394</v>
+        <v>0.5025299392457537</v>
       </c>
       <c r="P2">
-        <v>0.05770453436078394</v>
+        <v>0.5025299392457538</v>
       </c>
       <c r="Q2">
-        <v>18.6815551326036</v>
+        <v>497.4271644668872</v>
       </c>
       <c r="R2">
-        <v>18.6815551326036</v>
+        <v>4476.844480201986</v>
       </c>
       <c r="S2">
-        <v>0.04680271536289905</v>
+        <v>0.3864836128000991</v>
       </c>
       <c r="T2">
-        <v>0.04680271536289905</v>
+        <v>0.3864836128000991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.8293625212978</v>
+        <v>25.59758166666667</v>
       </c>
       <c r="H3">
-        <v>17.8293625212978</v>
+        <v>76.792745</v>
       </c>
       <c r="I3">
-        <v>0.8110751760039542</v>
+        <v>0.7690757955240869</v>
       </c>
       <c r="J3">
-        <v>0.8110751760039542</v>
+        <v>0.7690757955240868</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>17.1101718230673</v>
+        <v>0.3811586666666666</v>
       </c>
       <c r="N3">
-        <v>17.1101718230673</v>
+        <v>1.143476</v>
       </c>
       <c r="O3">
-        <v>0.9422954656392161</v>
+        <v>0.009856828012032942</v>
       </c>
       <c r="P3">
-        <v>0.9422954656392161</v>
+        <v>0.009856828012032942</v>
       </c>
       <c r="Q3">
-        <v>305.0634562351618</v>
+        <v>9.756740097957778</v>
       </c>
       <c r="R3">
-        <v>305.0634562351618</v>
+        <v>87.81066088162</v>
       </c>
       <c r="S3">
-        <v>0.7642724606410551</v>
+        <v>0.007580647844698339</v>
       </c>
       <c r="T3">
-        <v>0.7642724606410551</v>
+        <v>0.007580647844698338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.15301722448655</v>
+        <v>25.59758166666667</v>
       </c>
       <c r="H4">
-        <v>4.15301722448655</v>
+        <v>76.792745</v>
       </c>
       <c r="I4">
-        <v>0.1889248239960458</v>
+        <v>0.7690757955240869</v>
       </c>
       <c r="J4">
-        <v>0.1889248239960458</v>
+        <v>0.7690757955240868</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.04779714419334</v>
+        <v>18.712703</v>
       </c>
       <c r="N4">
-        <v>1.04779714419334</v>
+        <v>56.138109</v>
       </c>
       <c r="O4">
-        <v>0.05770453436078394</v>
+        <v>0.4839136854063913</v>
       </c>
       <c r="P4">
-        <v>0.05770453436078394</v>
+        <v>0.4839136854063913</v>
       </c>
       <c r="Q4">
-        <v>4.351519587602759</v>
+        <v>478.9999432465784</v>
       </c>
       <c r="R4">
-        <v>4.351519587602759</v>
+        <v>4310.999489219204</v>
       </c>
       <c r="S4">
-        <v>0.01090181899788488</v>
+        <v>0.3721663025689131</v>
       </c>
       <c r="T4">
-        <v>0.01090181899788488</v>
+        <v>0.372166302568913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>25.59758166666667</v>
+      </c>
+      <c r="H5">
+        <v>76.792745</v>
+      </c>
+      <c r="I5">
+        <v>0.7690757955240869</v>
+      </c>
+      <c r="J5">
+        <v>0.7690757955240868</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1430596666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.429179</v>
+      </c>
+      <c r="O5">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="P5">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="Q5">
+        <v>3.661981500706111</v>
+      </c>
+      <c r="R5">
+        <v>32.95783350635499</v>
+      </c>
+      <c r="S5">
+        <v>0.002845232310376246</v>
+      </c>
+      <c r="T5">
+        <v>0.002845232310376246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.545858</v>
+      </c>
+      <c r="H6">
+        <v>1.637574</v>
+      </c>
+      <c r="I6">
+        <v>0.01640022800043886</v>
+      </c>
+      <c r="J6">
+        <v>0.01640022800043885</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>19.43258433333333</v>
+      </c>
+      <c r="N6">
+        <v>58.29775300000001</v>
+      </c>
+      <c r="O6">
+        <v>0.5025299392457537</v>
+      </c>
+      <c r="P6">
+        <v>0.5025299392457538</v>
+      </c>
+      <c r="Q6">
+        <v>10.60743161902467</v>
+      </c>
+      <c r="R6">
+        <v>95.46688457122201</v>
+      </c>
+      <c r="S6">
+        <v>0.008241605580677047</v>
+      </c>
+      <c r="T6">
+        <v>0.008241605580677047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.545858</v>
+      </c>
+      <c r="H7">
+        <v>1.637574</v>
+      </c>
+      <c r="I7">
+        <v>0.01640022800043886</v>
+      </c>
+      <c r="J7">
+        <v>0.01640022800043885</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.3811586666666666</v>
+      </c>
+      <c r="N7">
+        <v>1.143476</v>
+      </c>
+      <c r="O7">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="P7">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="Q7">
+        <v>0.2080585074693333</v>
+      </c>
+      <c r="R7">
+        <v>1.872526567224</v>
+      </c>
+      <c r="S7">
+        <v>0.0001616542267584527</v>
+      </c>
+      <c r="T7">
+        <v>0.0001616542267584527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.545858</v>
+      </c>
+      <c r="H8">
+        <v>1.637574</v>
+      </c>
+      <c r="I8">
+        <v>0.01640022800043886</v>
+      </c>
+      <c r="J8">
+        <v>0.01640022800043885</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>18.712703</v>
+      </c>
+      <c r="N8">
+        <v>56.138109</v>
+      </c>
+      <c r="O8">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="P8">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="Q8">
+        <v>10.214478634174</v>
+      </c>
+      <c r="R8">
+        <v>91.93030770756599</v>
+      </c>
+      <c r="S8">
+        <v>0.007936294773197459</v>
+      </c>
+      <c r="T8">
+        <v>0.007936294773197457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.545858</v>
+      </c>
+      <c r="H9">
+        <v>1.637574</v>
+      </c>
+      <c r="I9">
+        <v>0.01640022800043886</v>
+      </c>
+      <c r="J9">
+        <v>0.01640022800043885</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1430596666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.429179</v>
+      </c>
+      <c r="O9">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="P9">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="Q9">
+        <v>0.07809026352733332</v>
+      </c>
+      <c r="R9">
+        <v>0.7028123717459999</v>
+      </c>
+      <c r="S9">
+        <v>6.067341980589535E-05</v>
+      </c>
+      <c r="T9">
+        <v>6.067341980589533E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.877983333333333</v>
+      </c>
+      <c r="H10">
+        <v>17.63395</v>
+      </c>
+      <c r="I10">
+        <v>0.1766031950607049</v>
+      </c>
+      <c r="J10">
+        <v>0.1766031950607049</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.43258433333333</v>
+      </c>
+      <c r="N10">
+        <v>58.29775300000001</v>
+      </c>
+      <c r="O10">
+        <v>0.5025299392457537</v>
+      </c>
+      <c r="P10">
+        <v>0.5025299392457538</v>
+      </c>
+      <c r="Q10">
+        <v>114.2244068349278</v>
+      </c>
+      <c r="R10">
+        <v>1028.01966151435</v>
+      </c>
+      <c r="S10">
+        <v>0.08874839288446203</v>
+      </c>
+      <c r="T10">
+        <v>0.08874839288446204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4.15301722448655</v>
-      </c>
-      <c r="H5">
-        <v>4.15301722448655</v>
-      </c>
-      <c r="I5">
-        <v>0.1889248239960458</v>
-      </c>
-      <c r="J5">
-        <v>0.1889248239960458</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>17.1101718230673</v>
-      </c>
-      <c r="N5">
-        <v>17.1101718230673</v>
-      </c>
-      <c r="O5">
-        <v>0.9422954656392161</v>
-      </c>
-      <c r="P5">
-        <v>0.9422954656392161</v>
-      </c>
-      <c r="Q5">
-        <v>71.05883829512294</v>
-      </c>
-      <c r="R5">
-        <v>71.05883829512294</v>
-      </c>
-      <c r="S5">
-        <v>0.1780230049981609</v>
-      </c>
-      <c r="T5">
-        <v>0.1780230049981609</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.877983333333333</v>
+      </c>
+      <c r="H11">
+        <v>17.63395</v>
+      </c>
+      <c r="I11">
+        <v>0.1766031950607049</v>
+      </c>
+      <c r="J11">
+        <v>0.1766031950607049</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3811586666666666</v>
+      </c>
+      <c r="N11">
+        <v>1.143476</v>
+      </c>
+      <c r="O11">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="P11">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="Q11">
+        <v>2.240444290022222</v>
+      </c>
+      <c r="R11">
+        <v>20.1639986102</v>
+      </c>
+      <c r="S11">
+        <v>0.001740747320088874</v>
+      </c>
+      <c r="T11">
+        <v>0.001740747320088874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.877983333333333</v>
+      </c>
+      <c r="H12">
+        <v>17.63395</v>
+      </c>
+      <c r="I12">
+        <v>0.1766031950607049</v>
+      </c>
+      <c r="J12">
+        <v>0.1766031950607049</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.712703</v>
+      </c>
+      <c r="N12">
+        <v>56.138109</v>
+      </c>
+      <c r="O12">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="P12">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="Q12">
+        <v>109.9929563556167</v>
+      </c>
+      <c r="R12">
+        <v>989.9366072005499</v>
+      </c>
+      <c r="S12">
+        <v>0.08546070297636951</v>
+      </c>
+      <c r="T12">
+        <v>0.0854607029763695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.877983333333333</v>
+      </c>
+      <c r="H13">
+        <v>17.63395</v>
+      </c>
+      <c r="I13">
+        <v>0.1766031950607049</v>
+      </c>
+      <c r="J13">
+        <v>0.1766031950607049</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1430596666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.429179</v>
+      </c>
+      <c r="O13">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="P13">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="Q13">
+        <v>0.8409023363388889</v>
+      </c>
+      <c r="R13">
+        <v>7.568121027049999</v>
+      </c>
+      <c r="S13">
+        <v>0.0006533518797844667</v>
+      </c>
+      <c r="T13">
+        <v>0.0006533518797844666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.262138666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.786416</v>
+      </c>
+      <c r="I14">
+        <v>0.03792078141476947</v>
+      </c>
+      <c r="J14">
+        <v>0.03792078141476946</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.43258433333333</v>
+      </c>
+      <c r="N14">
+        <v>58.29775300000001</v>
+      </c>
+      <c r="O14">
+        <v>0.5025299392457537</v>
+      </c>
+      <c r="P14">
+        <v>0.5025299392457538</v>
+      </c>
+      <c r="Q14">
+        <v>24.52661608036089</v>
+      </c>
+      <c r="R14">
+        <v>220.739544723248</v>
+      </c>
+      <c r="S14">
+        <v>0.01905632798051561</v>
+      </c>
+      <c r="T14">
+        <v>0.01905632798051561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.262138666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.786416</v>
+      </c>
+      <c r="I15">
+        <v>0.03792078141476947</v>
+      </c>
+      <c r="J15">
+        <v>0.03792078141476946</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3811586666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.143476</v>
+      </c>
+      <c r="O15">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="P15">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="Q15">
+        <v>0.4810750913351111</v>
+      </c>
+      <c r="R15">
+        <v>4.329675822016</v>
+      </c>
+      <c r="S15">
+        <v>0.0003737786204872779</v>
+      </c>
+      <c r="T15">
+        <v>0.0003737786204872778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.262138666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.786416</v>
+      </c>
+      <c r="I16">
+        <v>0.03792078141476947</v>
+      </c>
+      <c r="J16">
+        <v>0.03792078141476946</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.712703</v>
+      </c>
+      <c r="N16">
+        <v>56.138109</v>
+      </c>
+      <c r="O16">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="P16">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="Q16">
+        <v>23.61802601414934</v>
+      </c>
+      <c r="R16">
+        <v>212.562234127344</v>
+      </c>
+      <c r="S16">
+        <v>0.01835038508791128</v>
+      </c>
+      <c r="T16">
+        <v>0.01835038508791128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.262138666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.786416</v>
+      </c>
+      <c r="I17">
+        <v>0.03792078141476947</v>
+      </c>
+      <c r="J17">
+        <v>0.03792078141476946</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1430596666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.429179</v>
+      </c>
+      <c r="O17">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="P17">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="Q17">
+        <v>0.1805611369404445</v>
+      </c>
+      <c r="R17">
+        <v>1.625050232464</v>
+      </c>
+      <c r="S17">
+        <v>0.0001402897258552951</v>
+      </c>
+      <c r="T17">
+        <v>0.0001402897258552951</v>
       </c>
     </row>
   </sheetData>
